--- a/rrd/AppData/DefineTeamSetup.xlsx
+++ b/rrd/AppData/DefineTeamSetup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devworkspace\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339FC76-D5C7-4E50-94A6-8F0A8914D594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A3C3-CE47-4B8B-9820-AA5C3BB3E931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="102">
   <si>
     <t>Team</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Caseconfig</t>
   </si>
   <si>
-    <t>Test User</t>
-  </si>
-  <si>
     <t>CaseConfig3</t>
   </si>
   <si>
@@ -319,13 +316,31 @@
   </si>
   <si>
     <t>FeedbackTeam_cTest</t>
+  </si>
+  <si>
+    <t>RRD Mirketa</t>
+  </si>
+  <si>
+    <t>Testing_Nandini</t>
+  </si>
+  <si>
+    <t>7/22/2020</t>
+  </si>
+  <si>
+    <t>6/11/2020</t>
+  </si>
+  <si>
+    <t>6/12/2020</t>
+  </si>
+  <si>
+    <t>9/21/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +381,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +431,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,13 +715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -708,87 +729,87 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +822,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -852,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -869,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -878,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -895,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -912,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -929,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -946,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -963,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -980,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -997,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1014,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1031,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1048,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1065,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1073,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1082,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1099,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1107,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1116,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1129,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD4938-E130-45E1-8318-C2F72F06047D}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1188,13 +1209,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1205,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1225,13 +1246,13 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,13 +1263,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1259,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1276,13 +1297,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1293,13 +1314,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1327,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,13 +1365,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,13 +1399,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,13 +1416,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,10 +1453,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,13 +1467,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98309287-A1A4-46F1-A7B9-AFD1BED164A7}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>26</v>
@@ -1556,13 +1577,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -1571,15 +1592,15 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
+      <c r="A4" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1597,24 +1618,24 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -1623,7 +1644,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>27</v>
@@ -1649,10 +1670,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,13 +1681,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -1675,223 +1696,223 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
+      <c r="A15" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1902,100 +1923,100 @@
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>64</v>
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -2007,21 +2028,21 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>16</v>
@@ -2033,20 +2054,151 @@
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>79</v>
+      <c r="H25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rrd/AppData/DefineTeamSetup.xlsx
+++ b/rrd/AppData/DefineTeamSetup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A3C3-CE47-4B8B-9820-AA5C3BB3E931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5178F1-C5C3-4C12-8FB8-F5184298FAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -715,99 +715,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -822,19 +824,19 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -851,7 +853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -868,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -885,7 +887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -902,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -919,7 +921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -936,7 +938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -953,7 +955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -970,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -987,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1151,20 +1153,20 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1504,23 +1506,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98309287-A1A4-46F1-A7B9-AFD1BED164A7}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>96</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>97</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>96</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>96</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>96</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1962,8 +1964,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1988,7 +1990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>96</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>97</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>97</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>97</v>
       </c>
